--- a/excel/HouseModel.xlsx
+++ b/excel/HouseModel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\housemodel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\housemodel\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1001A97F-D76C-4D20-AC4D-11A12F270EDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41B41E6-4B6D-4B8E-891A-39AF04D355D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1725" yWindow="1725" windowWidth="9600" windowHeight="6600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ranking2019" sheetId="1" r:id="rId1"/>
@@ -2324,11 +2324,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V269"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="T5" sqref="T5"/>
+      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2400,10 +2400,10 @@
         <v>3</v>
       </c>
       <c r="G3" s="1">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1">
         <v>1</v>
-      </c>
-      <c r="H3" s="1">
-        <v>2</v>
       </c>
       <c r="I3" s="1">
         <v>4</v>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="R5" s="10">
         <f t="shared" ref="R5:R50" si="3">(I5*$I$3+J5*$J$3+K5*$K$3+L5*$L$3+M5*$M$3+N5*$N$3+O5*$O$3)*((G5*$G$3+H5*$H$3)/2)</f>
-        <v>6565.2999999999993</v>
+        <v>6457.4</v>
       </c>
       <c r="S5" s="10">
         <f t="shared" ref="S5:S50" si="4">MAX($R$5:$R$50)-R5</f>
@@ -2561,11 +2561,11 @@
       </c>
       <c r="T5" s="9">
         <f t="shared" ref="T5:T50" si="5">IF(B5&gt;0,R5/(B5+((P5/$B$1)*$P$3)),0)</f>
-        <v>1.1559263644990458</v>
+        <v>1.1369288389130945</v>
       </c>
       <c r="U5" s="11">
         <f t="shared" ref="U5:U50" si="6">MAX($T$5:$T$50)-T5</f>
-        <v>3.8133608165914934E-2</v>
+        <v>2.9575903613443977E-2</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -2625,15 +2625,15 @@
       </c>
       <c r="R6" s="10">
         <f t="shared" si="3"/>
-        <v>5050.5</v>
+        <v>4933.95</v>
       </c>
       <c r="S6" s="10">
         <f t="shared" si="4"/>
-        <v>1514.7999999999993</v>
+        <v>1523.4499999999998</v>
       </c>
       <c r="T6" s="9">
         <f t="shared" si="5"/>
-        <v>1.1940599726649608</v>
+        <v>1.1665047425265385</v>
       </c>
       <c r="U6" s="11">
         <f t="shared" si="6"/>
@@ -2641,7 +2641,7 @@
       </c>
       <c r="V6" s="9">
         <f t="shared" ref="V6:V27" si="7">S6/C6/10</f>
-        <v>0.10446896551724132</v>
+        <v>0.10506551724137929</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -2705,7 +2705,7 @@
       </c>
       <c r="S7" s="10">
         <f t="shared" si="4"/>
-        <v>1514.7999999999993</v>
+        <v>1406.8999999999996</v>
       </c>
       <c r="T7" s="9">
         <f t="shared" si="5"/>
@@ -2713,11 +2713,11 @@
       </c>
       <c r="U7" s="11">
         <f t="shared" si="6"/>
-        <v>0.27578725204445553</v>
+        <v>0.24823202190603322</v>
       </c>
       <c r="V7" s="9">
         <f t="shared" si="7"/>
-        <v>1.5147999999999993</v>
+        <v>1.4068999999999996</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -2777,23 +2777,23 @@
       </c>
       <c r="R8" s="10">
         <f t="shared" si="3"/>
-        <v>4670.25</v>
+        <v>4543.5</v>
       </c>
       <c r="S8" s="10">
         <f t="shared" si="4"/>
-        <v>1895.0499999999993</v>
+        <v>1913.8999999999996</v>
       </c>
       <c r="T8" s="9">
         <f t="shared" si="5"/>
-        <v>0.90702077371549739</v>
+        <v>0.88240434353115194</v>
       </c>
       <c r="U8" s="11">
         <f t="shared" si="6"/>
-        <v>0.28703919894946339</v>
+        <v>0.28410039899538653</v>
       </c>
       <c r="V8" s="9">
         <f t="shared" si="7"/>
-        <v>0.42018847006651872</v>
+        <v>0.42436807095343676</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
@@ -2853,23 +2853,23 @@
       </c>
       <c r="R9" s="10">
         <f t="shared" si="3"/>
-        <v>4657.5</v>
+        <v>4515.75</v>
       </c>
       <c r="S9" s="10">
         <f t="shared" si="4"/>
-        <v>1907.7999999999993</v>
+        <v>1941.6499999999996</v>
       </c>
       <c r="T9" s="9">
         <f t="shared" si="5"/>
-        <v>0.86042859148669737</v>
+        <v>0.8342416343544935</v>
       </c>
       <c r="U9" s="11">
         <f t="shared" si="6"/>
-        <v>0.33363138117826341</v>
+        <v>0.33226310817204496</v>
       </c>
       <c r="V9" s="9">
         <f t="shared" si="7"/>
-        <v>1.0202139037433151</v>
+        <v>1.0383155080213902</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
@@ -2929,23 +2929,23 @@
       </c>
       <c r="R10" s="10">
         <f t="shared" si="3"/>
-        <v>4550</v>
+        <v>4468.75</v>
       </c>
       <c r="S10" s="10">
         <f t="shared" si="4"/>
-        <v>2015.2999999999993</v>
+        <v>1988.6499999999996</v>
       </c>
       <c r="T10" s="9">
         <f t="shared" si="5"/>
-        <v>0.94822578112733547</v>
+        <v>0.93129317789291877</v>
       </c>
       <c r="U10" s="11">
         <f t="shared" si="6"/>
-        <v>0.24583419153762531</v>
+        <v>0.2352115646336197</v>
       </c>
       <c r="V10" s="9">
         <f t="shared" si="7"/>
-        <v>0.1679416666666666</v>
+        <v>0.16572083333333329</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -3005,23 +3005,23 @@
       </c>
       <c r="R11" s="10">
         <f t="shared" si="3"/>
-        <v>4306.25</v>
+        <v>4225</v>
       </c>
       <c r="S11" s="10">
         <f t="shared" si="4"/>
-        <v>2259.0499999999993</v>
+        <v>2232.3999999999996</v>
       </c>
       <c r="T11" s="9">
         <f t="shared" si="5"/>
-        <v>1.1251668853210006</v>
+        <v>1.1039373214470194</v>
       </c>
       <c r="U11" s="11">
         <f t="shared" si="6"/>
-        <v>6.8893087343960158E-2</v>
+        <v>6.256742107951907E-2</v>
       </c>
       <c r="V11" s="9">
         <f t="shared" si="7"/>
-        <v>0.12742908071457981</v>
+        <v>0.12592580057423608</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -3085,7 +3085,7 @@
       </c>
       <c r="S12" s="10">
         <f t="shared" si="4"/>
-        <v>2294.0499999999993</v>
+        <v>2186.1499999999996</v>
       </c>
       <c r="T12" s="9">
         <f t="shared" si="5"/>
@@ -3093,11 +3093,11 @@
       </c>
       <c r="U12" s="11">
         <f t="shared" si="6"/>
-        <v>0.24835459605009014</v>
+        <v>0.22079936591166782</v>
       </c>
       <c r="V12" s="9">
         <f t="shared" si="7"/>
-        <v>0.21172002621062638</v>
+        <v>0.201761834005519</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -3161,7 +3161,7 @@
       </c>
       <c r="S13" s="10">
         <f t="shared" si="4"/>
-        <v>2344.2999999999993</v>
+        <v>2236.3999999999996</v>
       </c>
       <c r="T13" s="9">
         <f t="shared" si="5"/>
@@ -3169,11 +3169,11 @@
       </c>
       <c r="U13" s="11">
         <f t="shared" si="6"/>
-        <v>0.25605998097012195</v>
+        <v>0.22850475083169963</v>
       </c>
       <c r="V13" s="9">
         <f t="shared" si="7"/>
-        <v>0.21311818181818176</v>
+        <v>0.20330909090909088</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
@@ -3233,23 +3233,23 @@
       </c>
       <c r="R14" s="10">
         <f t="shared" si="3"/>
-        <v>4103.3</v>
+        <v>3974.7249999999999</v>
       </c>
       <c r="S14" s="10">
         <f t="shared" si="4"/>
-        <v>2461.9999999999991</v>
+        <v>2482.6749999999997</v>
       </c>
       <c r="T14" s="9">
         <f t="shared" si="5"/>
-        <v>0.85646002209885508</v>
+        <v>0.82962324503128493</v>
       </c>
       <c r="U14" s="11">
         <f t="shared" si="6"/>
-        <v>0.3375999505661057</v>
+        <v>0.33688149749525353</v>
       </c>
       <c r="V14" s="9">
         <f t="shared" si="7"/>
-        <v>0.30432632880098875</v>
+        <v>0.30688195302843013</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
@@ -3309,23 +3309,23 @@
       </c>
       <c r="R15" s="10">
         <f t="shared" si="3"/>
-        <v>4095</v>
+        <v>3997.5</v>
       </c>
       <c r="S15" s="10">
         <f t="shared" si="4"/>
-        <v>2470.2999999999993</v>
+        <v>2459.8999999999996</v>
       </c>
       <c r="T15" s="9">
         <f t="shared" si="5"/>
-        <v>0.90999999194275405</v>
+        <v>0.88833332546792665</v>
       </c>
       <c r="U15" s="11">
         <f t="shared" si="6"/>
-        <v>0.28405998072220673</v>
+        <v>0.27817141705861181</v>
       </c>
       <c r="V15" s="9">
         <f t="shared" si="7"/>
-        <v>0.2245727272727272</v>
+        <v>0.2236272727272727</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
@@ -3389,7 +3389,7 @@
       </c>
       <c r="S16" s="10">
         <f t="shared" si="4"/>
-        <v>2545.2999999999993</v>
+        <v>2437.3999999999996</v>
       </c>
       <c r="T16" s="9">
         <f t="shared" si="5"/>
@@ -3397,11 +3397,11 @@
       </c>
       <c r="U16" s="11">
         <f t="shared" si="6"/>
-        <v>0.17993283855961217</v>
+        <v>0.15237760842118986</v>
       </c>
       <c r="V16" s="9">
         <f t="shared" si="7"/>
-        <v>0.15558068459657698</v>
+        <v>0.14898533007334963</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="21" x14ac:dyDescent="0.25">
@@ -3465,7 +3465,7 @@
       </c>
       <c r="S17" s="10">
         <f t="shared" si="4"/>
-        <v>2545.2999999999993</v>
+        <v>2437.3999999999996</v>
       </c>
       <c r="T17" s="9">
         <f t="shared" si="5"/>
@@ -3473,11 +3473,11 @@
       </c>
       <c r="U17" s="11">
         <f t="shared" si="6"/>
-        <v>0.32731454453889719</v>
+        <v>0.29975931440047487</v>
       </c>
       <c r="V17" s="9">
         <f t="shared" si="7"/>
-        <v>0.26459520146367821</v>
+        <v>0.25337851885733287</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="21" x14ac:dyDescent="0.25">
@@ -3537,23 +3537,23 @@
       </c>
       <c r="R18" s="10">
         <f t="shared" si="3"/>
-        <v>3920</v>
+        <v>3850</v>
       </c>
       <c r="S18" s="10">
         <f t="shared" si="4"/>
-        <v>2645.2999999999993</v>
+        <v>2607.3999999999996</v>
       </c>
       <c r="T18" s="9">
         <f t="shared" si="5"/>
-        <v>0.88210408037360366</v>
+        <v>0.86635222179550364</v>
       </c>
       <c r="U18" s="11">
         <f t="shared" si="6"/>
-        <v>0.31195589229135712</v>
+        <v>0.30015252073103482</v>
       </c>
       <c r="V18" s="9">
         <f t="shared" si="7"/>
-        <v>0.22881634488962699</v>
+        <v>0.22553802505016951</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
@@ -3617,7 +3617,7 @@
       </c>
       <c r="S19" s="10">
         <f t="shared" si="4"/>
-        <v>2743.2999999999993</v>
+        <v>2635.3999999999996</v>
       </c>
       <c r="T19" s="9">
         <f t="shared" si="5"/>
@@ -3625,11 +3625,11 @@
       </c>
       <c r="U19" s="11">
         <f t="shared" si="6"/>
-        <v>0.31059138415756549</v>
+        <v>0.28303615401914317</v>
       </c>
       <c r="V19" s="9">
         <f t="shared" si="7"/>
-        <v>0.21535164498732207</v>
+        <v>0.20688139292078467</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="21" x14ac:dyDescent="0.25">
@@ -3689,23 +3689,23 @@
       </c>
       <c r="R20" s="10">
         <f t="shared" si="3"/>
-        <v>3668.25</v>
+        <v>3618</v>
       </c>
       <c r="S20" s="10">
         <f t="shared" si="4"/>
-        <v>2897.0499999999993</v>
+        <v>2839.3999999999996</v>
       </c>
       <c r="T20" s="9">
         <f t="shared" si="5"/>
-        <v>0.94057691346771832</v>
+        <v>0.92769229821473587</v>
       </c>
       <c r="U20" s="11">
         <f t="shared" si="6"/>
-        <v>0.25348305919724246</v>
+        <v>0.2388124443118026</v>
       </c>
       <c r="V20" s="9">
         <f t="shared" si="7"/>
-        <v>0.17041470588235291</v>
+        <v>0.16702352941176468</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
@@ -3762,23 +3762,23 @@
       </c>
       <c r="R21" s="10">
         <f t="shared" si="3"/>
-        <v>3642.5</v>
+        <v>3565</v>
       </c>
       <c r="S21" s="10">
         <f t="shared" si="4"/>
-        <v>2922.7999999999993</v>
+        <v>2892.3999999999996</v>
       </c>
       <c r="T21" s="9">
         <f t="shared" si="5"/>
-        <v>0.80408387813740945</v>
+        <v>0.78697571051746451</v>
       </c>
       <c r="U21" s="11">
         <f t="shared" si="6"/>
-        <v>0.38997609452755133</v>
+        <v>0.37952903200907395</v>
       </c>
       <c r="V21" s="9">
         <f t="shared" si="7"/>
-        <v>0.27315887850467285</v>
+        <v>0.27031775700934574</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="21" x14ac:dyDescent="0.25">
@@ -3838,23 +3838,23 @@
       </c>
       <c r="R22" s="10">
         <f t="shared" si="3"/>
-        <v>3632</v>
+        <v>3616</v>
       </c>
       <c r="S22" s="10">
         <f t="shared" si="4"/>
-        <v>2933.2999999999993</v>
+        <v>2841.3999999999996</v>
       </c>
       <c r="T22" s="9">
         <f t="shared" si="5"/>
-        <v>0.82752334632685209</v>
+        <v>0.82387786903025795</v>
       </c>
       <c r="U22" s="11">
         <f t="shared" si="6"/>
-        <v>0.36653662633810868</v>
+        <v>0.34262687349628052</v>
       </c>
       <c r="V22" s="9">
         <f t="shared" si="7"/>
-        <v>0.24222130470685377</v>
+        <v>0.23463253509496282</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
@@ -3918,7 +3918,7 @@
       </c>
       <c r="S23" s="10">
         <f t="shared" si="4"/>
-        <v>2947.2999999999993</v>
+        <v>2839.3999999999996</v>
       </c>
       <c r="T23" s="9">
         <f t="shared" si="5"/>
@@ -3926,11 +3926,11 @@
       </c>
       <c r="U23" s="11">
         <f t="shared" si="6"/>
-        <v>0.26636767445022491</v>
+        <v>0.2388124443118026</v>
       </c>
       <c r="V23" s="9">
         <f t="shared" si="7"/>
-        <v>0.17337058823529408</v>
+        <v>0.16702352941176468</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
@@ -3994,7 +3994,7 @@
       </c>
       <c r="S24" s="10">
         <f t="shared" si="4"/>
-        <v>2965.2999999999993</v>
+        <v>2857.3999999999996</v>
       </c>
       <c r="T24" s="9">
         <f t="shared" si="5"/>
@@ -4002,11 +4002,11 @@
       </c>
       <c r="U24" s="11">
         <f t="shared" si="6"/>
-        <v>0.39511636073689427</v>
+        <v>0.36756113059847195</v>
       </c>
       <c r="V24" s="9">
         <f t="shared" si="7"/>
-        <v>0.27103880078607001</v>
+        <v>0.26117636305470493</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
@@ -4066,23 +4066,23 @@
       </c>
       <c r="R25" s="10">
         <f t="shared" si="3"/>
-        <v>3584</v>
+        <v>3472</v>
       </c>
       <c r="S25" s="10">
         <f t="shared" si="4"/>
-        <v>2981.2999999999993</v>
+        <v>2985.3999999999996</v>
       </c>
       <c r="T25" s="9">
         <f t="shared" si="5"/>
-        <v>0.91897434958585222</v>
+        <v>0.89025640116129434</v>
       </c>
       <c r="U25" s="11">
         <f t="shared" si="6"/>
-        <v>0.27508562307910855</v>
+        <v>0.27624834136524412</v>
       </c>
       <c r="V25" s="9">
         <f t="shared" si="7"/>
-        <v>0.17537058823529408</v>
+        <v>0.17561176470588233</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
@@ -4142,23 +4142,23 @@
       </c>
       <c r="R26" s="10">
         <f t="shared" si="3"/>
-        <v>3552</v>
+        <v>3456</v>
       </c>
       <c r="S26" s="10">
         <f t="shared" si="4"/>
-        <v>3013.2999999999993</v>
+        <v>3001.3999999999996</v>
       </c>
       <c r="T26" s="9">
         <f t="shared" si="5"/>
-        <v>0.85567886167409968</v>
+        <v>0.83255240595317814</v>
       </c>
       <c r="U26" s="11">
         <f t="shared" si="6"/>
-        <v>0.3383811109908611</v>
+        <v>0.33395233657336032</v>
       </c>
       <c r="V26" s="9">
         <f t="shared" si="7"/>
-        <v>0.20797012926958885</v>
+        <v>0.20714882221808115</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
@@ -4222,7 +4222,7 @@
       </c>
       <c r="S27" s="10">
         <f t="shared" si="4"/>
-        <v>3152.7999999999993</v>
+        <v>3044.8999999999996</v>
       </c>
       <c r="T27" s="9">
         <f t="shared" si="5"/>
@@ -4230,11 +4230,11 @@
       </c>
       <c r="U27" s="11">
         <f t="shared" si="6"/>
-        <v>0.25268067266713135</v>
+        <v>0.22512544252870903</v>
       </c>
       <c r="V27" s="9">
         <f t="shared" si="7"/>
-        <v>0.15963544303797467</v>
+        <v>0.15417215189873418</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
@@ -4248,7 +4248,7 @@
       </c>
       <c r="S28" s="10">
         <f t="shared" si="4"/>
-        <v>6565.2999999999993</v>
+        <v>6457.4</v>
       </c>
       <c r="T28" s="9">
         <f t="shared" si="5"/>
@@ -4256,7 +4256,7 @@
       </c>
       <c r="U28" s="11">
         <f t="shared" si="6"/>
-        <v>1.1940599726649608</v>
+        <v>1.1665047425265385</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
@@ -4270,7 +4270,7 @@
       </c>
       <c r="S29" s="10">
         <f t="shared" si="4"/>
-        <v>6565.2999999999993</v>
+        <v>6457.4</v>
       </c>
       <c r="T29" s="9">
         <f t="shared" si="5"/>
@@ -4278,7 +4278,7 @@
       </c>
       <c r="U29" s="11">
         <f t="shared" si="6"/>
-        <v>1.1940599726649608</v>
+        <v>1.1665047425265385</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
@@ -4292,7 +4292,7 @@
       </c>
       <c r="S30" s="10">
         <f t="shared" si="4"/>
-        <v>6565.2999999999993</v>
+        <v>6457.4</v>
       </c>
       <c r="T30" s="9">
         <f t="shared" si="5"/>
@@ -4300,7 +4300,7 @@
       </c>
       <c r="U30" s="11">
         <f t="shared" si="6"/>
-        <v>1.1940599726649608</v>
+        <v>1.1665047425265385</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
@@ -4314,7 +4314,7 @@
       </c>
       <c r="S31" s="10">
         <f t="shared" si="4"/>
-        <v>6565.2999999999993</v>
+        <v>6457.4</v>
       </c>
       <c r="T31" s="9">
         <f t="shared" si="5"/>
@@ -4322,7 +4322,7 @@
       </c>
       <c r="U31" s="11">
         <f t="shared" si="6"/>
-        <v>1.1940599726649608</v>
+        <v>1.1665047425265385</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
@@ -4336,7 +4336,7 @@
       </c>
       <c r="S32" s="10">
         <f t="shared" si="4"/>
-        <v>6565.2999999999993</v>
+        <v>6457.4</v>
       </c>
       <c r="T32" s="9">
         <f t="shared" si="5"/>
@@ -4344,7 +4344,7 @@
       </c>
       <c r="U32" s="11">
         <f t="shared" si="6"/>
-        <v>1.1940599726649608</v>
+        <v>1.1665047425265385</v>
       </c>
     </row>
     <row r="33" spans="5:21" x14ac:dyDescent="0.25">
@@ -4358,7 +4358,7 @@
       </c>
       <c r="S33" s="10">
         <f t="shared" si="4"/>
-        <v>6565.2999999999993</v>
+        <v>6457.4</v>
       </c>
       <c r="T33" s="9">
         <f t="shared" si="5"/>
@@ -4366,7 +4366,7 @@
       </c>
       <c r="U33" s="11">
         <f t="shared" si="6"/>
-        <v>1.1940599726649608</v>
+        <v>1.1665047425265385</v>
       </c>
     </row>
     <row r="34" spans="5:21" x14ac:dyDescent="0.25">
@@ -4380,7 +4380,7 @@
       </c>
       <c r="S34" s="10">
         <f t="shared" si="4"/>
-        <v>6565.2999999999993</v>
+        <v>6457.4</v>
       </c>
       <c r="T34" s="9">
         <f t="shared" si="5"/>
@@ -4388,7 +4388,7 @@
       </c>
       <c r="U34" s="11">
         <f t="shared" si="6"/>
-        <v>1.1940599726649608</v>
+        <v>1.1665047425265385</v>
       </c>
     </row>
     <row r="35" spans="5:21" x14ac:dyDescent="0.25">
@@ -4402,7 +4402,7 @@
       </c>
       <c r="S35" s="10">
         <f t="shared" si="4"/>
-        <v>6565.2999999999993</v>
+        <v>6457.4</v>
       </c>
       <c r="T35" s="9">
         <f t="shared" si="5"/>
@@ -4410,7 +4410,7 @@
       </c>
       <c r="U35" s="11">
         <f t="shared" si="6"/>
-        <v>1.1940599726649608</v>
+        <v>1.1665047425265385</v>
       </c>
     </row>
     <row r="36" spans="5:21" x14ac:dyDescent="0.25">
@@ -4424,7 +4424,7 @@
       </c>
       <c r="S36" s="10">
         <f t="shared" si="4"/>
-        <v>6565.2999999999993</v>
+        <v>6457.4</v>
       </c>
       <c r="T36" s="9">
         <f t="shared" si="5"/>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="U36" s="11">
         <f t="shared" si="6"/>
-        <v>1.1940599726649608</v>
+        <v>1.1665047425265385</v>
       </c>
     </row>
     <row r="37" spans="5:21" x14ac:dyDescent="0.25">
@@ -4446,7 +4446,7 @@
       </c>
       <c r="S37" s="10">
         <f t="shared" si="4"/>
-        <v>6565.2999999999993</v>
+        <v>6457.4</v>
       </c>
       <c r="T37" s="9">
         <f t="shared" si="5"/>
@@ -4454,7 +4454,7 @@
       </c>
       <c r="U37" s="11">
         <f t="shared" si="6"/>
-        <v>1.1940599726649608</v>
+        <v>1.1665047425265385</v>
       </c>
     </row>
     <row r="38" spans="5:21" x14ac:dyDescent="0.25">
@@ -4468,7 +4468,7 @@
       </c>
       <c r="S38" s="10">
         <f t="shared" si="4"/>
-        <v>6565.2999999999993</v>
+        <v>6457.4</v>
       </c>
       <c r="T38" s="9">
         <f t="shared" si="5"/>
@@ -4476,7 +4476,7 @@
       </c>
       <c r="U38" s="11">
         <f t="shared" si="6"/>
-        <v>1.1940599726649608</v>
+        <v>1.1665047425265385</v>
       </c>
     </row>
     <row r="39" spans="5:21" x14ac:dyDescent="0.25">
@@ -4490,7 +4490,7 @@
       </c>
       <c r="S39" s="10">
         <f t="shared" si="4"/>
-        <v>6565.2999999999993</v>
+        <v>6457.4</v>
       </c>
       <c r="T39" s="9">
         <f t="shared" si="5"/>
@@ -4498,7 +4498,7 @@
       </c>
       <c r="U39" s="11">
         <f t="shared" si="6"/>
-        <v>1.1940599726649608</v>
+        <v>1.1665047425265385</v>
       </c>
     </row>
     <row r="40" spans="5:21" x14ac:dyDescent="0.25">
@@ -4512,7 +4512,7 @@
       </c>
       <c r="S40" s="10">
         <f t="shared" si="4"/>
-        <v>6565.2999999999993</v>
+        <v>6457.4</v>
       </c>
       <c r="T40" s="9">
         <f t="shared" si="5"/>
@@ -4520,7 +4520,7 @@
       </c>
       <c r="U40" s="11">
         <f t="shared" si="6"/>
-        <v>1.1940599726649608</v>
+        <v>1.1665047425265385</v>
       </c>
     </row>
     <row r="41" spans="5:21" x14ac:dyDescent="0.25">
@@ -4534,7 +4534,7 @@
       </c>
       <c r="S41" s="10">
         <f t="shared" si="4"/>
-        <v>6565.2999999999993</v>
+        <v>6457.4</v>
       </c>
       <c r="T41" s="9">
         <f t="shared" si="5"/>
@@ -4542,7 +4542,7 @@
       </c>
       <c r="U41" s="11">
         <f t="shared" si="6"/>
-        <v>1.1940599726649608</v>
+        <v>1.1665047425265385</v>
       </c>
     </row>
     <row r="42" spans="5:21" x14ac:dyDescent="0.25">
@@ -4556,7 +4556,7 @@
       </c>
       <c r="S42" s="10">
         <f t="shared" si="4"/>
-        <v>6565.2999999999993</v>
+        <v>6457.4</v>
       </c>
       <c r="T42" s="9">
         <f t="shared" si="5"/>
@@ -4564,7 +4564,7 @@
       </c>
       <c r="U42" s="11">
         <f t="shared" si="6"/>
-        <v>1.1940599726649608</v>
+        <v>1.1665047425265385</v>
       </c>
     </row>
     <row r="43" spans="5:21" x14ac:dyDescent="0.25">
@@ -4578,7 +4578,7 @@
       </c>
       <c r="S43" s="10">
         <f t="shared" si="4"/>
-        <v>6565.2999999999993</v>
+        <v>6457.4</v>
       </c>
       <c r="T43" s="9">
         <f t="shared" si="5"/>
@@ -4586,7 +4586,7 @@
       </c>
       <c r="U43" s="11">
         <f t="shared" si="6"/>
-        <v>1.1940599726649608</v>
+        <v>1.1665047425265385</v>
       </c>
     </row>
     <row r="44" spans="5:21" x14ac:dyDescent="0.25">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="S44" s="10">
         <f t="shared" si="4"/>
-        <v>6565.2999999999993</v>
+        <v>6457.4</v>
       </c>
       <c r="T44" s="9">
         <f t="shared" si="5"/>
@@ -4608,7 +4608,7 @@
       </c>
       <c r="U44" s="11">
         <f t="shared" si="6"/>
-        <v>1.1940599726649608</v>
+        <v>1.1665047425265385</v>
       </c>
     </row>
     <row r="45" spans="5:21" x14ac:dyDescent="0.25">
@@ -4622,7 +4622,7 @@
       </c>
       <c r="S45" s="10">
         <f t="shared" si="4"/>
-        <v>6565.2999999999993</v>
+        <v>6457.4</v>
       </c>
       <c r="T45" s="9">
         <f t="shared" si="5"/>
@@ -4630,7 +4630,7 @@
       </c>
       <c r="U45" s="11">
         <f t="shared" si="6"/>
-        <v>1.1940599726649608</v>
+        <v>1.1665047425265385</v>
       </c>
     </row>
     <row r="46" spans="5:21" x14ac:dyDescent="0.25">
@@ -4644,7 +4644,7 @@
       </c>
       <c r="S46" s="10">
         <f t="shared" si="4"/>
-        <v>6565.2999999999993</v>
+        <v>6457.4</v>
       </c>
       <c r="T46" s="9">
         <f t="shared" si="5"/>
@@ -4652,7 +4652,7 @@
       </c>
       <c r="U46" s="11">
         <f t="shared" si="6"/>
-        <v>1.1940599726649608</v>
+        <v>1.1665047425265385</v>
       </c>
     </row>
     <row r="47" spans="5:21" x14ac:dyDescent="0.25">
@@ -4666,7 +4666,7 @@
       </c>
       <c r="S47" s="10">
         <f t="shared" si="4"/>
-        <v>6565.2999999999993</v>
+        <v>6457.4</v>
       </c>
       <c r="T47" s="9">
         <f t="shared" si="5"/>
@@ -4674,7 +4674,7 @@
       </c>
       <c r="U47" s="11">
         <f t="shared" si="6"/>
-        <v>1.1940599726649608</v>
+        <v>1.1665047425265385</v>
       </c>
     </row>
     <row r="48" spans="5:21" x14ac:dyDescent="0.25">
@@ -4688,7 +4688,7 @@
       </c>
       <c r="S48" s="10">
         <f t="shared" si="4"/>
-        <v>6565.2999999999993</v>
+        <v>6457.4</v>
       </c>
       <c r="T48" s="9">
         <f t="shared" si="5"/>
@@ -4696,7 +4696,7 @@
       </c>
       <c r="U48" s="11">
         <f t="shared" si="6"/>
-        <v>1.1940599726649608</v>
+        <v>1.1665047425265385</v>
       </c>
     </row>
     <row r="49" spans="5:21" x14ac:dyDescent="0.25">
@@ -4709,7 +4709,7 @@
       </c>
       <c r="S49" s="10">
         <f t="shared" si="4"/>
-        <v>6565.2999999999993</v>
+        <v>6457.4</v>
       </c>
       <c r="T49" s="9">
         <f t="shared" si="5"/>
@@ -4717,7 +4717,7 @@
       </c>
       <c r="U49" s="11">
         <f t="shared" si="6"/>
-        <v>1.1940599726649608</v>
+        <v>1.1665047425265385</v>
       </c>
     </row>
     <row r="50" spans="5:21" x14ac:dyDescent="0.25">
@@ -4730,7 +4730,7 @@
       </c>
       <c r="S50" s="10">
         <f t="shared" si="4"/>
-        <v>6565.2999999999993</v>
+        <v>6457.4</v>
       </c>
       <c r="T50" s="9">
         <f t="shared" si="5"/>
@@ -4738,7 +4738,7 @@
       </c>
       <c r="U50" s="11">
         <f t="shared" si="6"/>
-        <v>1.1940599726649608</v>
+        <v>1.1665047425265385</v>
       </c>
     </row>
     <row r="51" spans="5:21" x14ac:dyDescent="0.25">
@@ -5782,11 +5782,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8605D214-F6F8-4676-A4B9-62B82A250746}">
   <dimension ref="A1:W269"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomRight" activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -5826,7 +5826,7 @@
       </c>
       <c r="C1" s="34">
         <f ca="1">TODAY()</f>
-        <v>44019</v>
+        <v>44032</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
